--- a/static/uploads/mau/bangcong/mau_bangchamcong_tonghop_kx.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_tonghop_kx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64215717-92C0-4351-BA22-BA4BBE61390E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E0B792-F57B-4EA2-A36E-57013102B624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,10 +130,10 @@
     <t>Ngày lễ</t>
   </si>
   <si>
-    <t>BẢNG CHẤM CÔNG TỔNG HỢP</t>
-  </si>
-  <si>
     <t>Nghỉ hưởng lương</t>
+  </si>
+  <si>
+    <t>BẢNG CHẤM CÔNG TỔNG HỢP NAM THUẬN</t>
   </si>
 </sst>
 </file>
@@ -386,10 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,40 +395,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,48 +798,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
+      <c r="A1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
@@ -847,48 +847,48 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
@@ -896,102 +896,102 @@
       <c r="AS2" s="2"/>
     </row>
     <row r="3" spans="1:45" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="16" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AC3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="16" t="s">
+      <c r="AD3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AG3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="16" t="s">
+      <c r="AH3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AI3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AK3" s="16" t="s">
+      <c r="AK3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="16" t="s">
+      <c r="AL3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AN3" s="16" t="s">
+      <c r="AN3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="AO3" s="7"/>
@@ -999,70 +999,70 @@
       <c r="AQ3" s="7"/>
     </row>
     <row r="4" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="21" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21" t="s">
+      <c r="S4" s="18"/>
+      <c r="T4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
       <c r="AO4" s="10"/>
       <c r="AP4" s="10"/>
       <c r="AQ4" s="10"/>
     </row>
     <row r="5" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
@@ -1099,29 +1099,29 @@
       <c r="U5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
       <c r="AO5" s="10"/>
       <c r="AP5" s="10"/>
       <c r="AQ5" s="10"/>
@@ -1134,26 +1134,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AB3:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="AG3:AG5"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="V3:V5"/>
@@ -1170,6 +1150,26 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="Z3:Z5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
